--- a/result/adaboost_genetic_algorithm_results.xlsx
+++ b/result/adaboost_genetic_algorithm_results.xlsx
@@ -1,15 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="CM1 Performance Metrics" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="CM1 Best Hyperparameters" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="CM1 Classification Report" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CM1 Performance Metrics" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CM1 Best Hyperparameters" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CM1 Classification Report" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JM1 Performance Metrics" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JM1 Best Hyperparameters" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JM1 Classification Report" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KC1 Performance Metrics" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KC1 Best Hyperparameters" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KC1 Classification Report" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KC3 Performance Metrics" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KC3 Best Hyperparameters" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KC3 Classification Report" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MC1 Performance Metrics" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MC1 Best Hyperparameters" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MC1 Classification Report" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MC2 Performance Metrics" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MC2 Best Hyperparameters" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MC2 Classification Report" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MW1 Performance Metrics" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MW1 Best Hyperparameters" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MW1 Classification Report" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PC1 Performance Metrics" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PC1 Best Hyperparameters" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PC1 Classification Report" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PC2 Performance Metrics" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PC2 Best Hyperparameters" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PC2 Classification Report" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PC3 Performance Metrics" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PC3 Best Hyperparameters" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PC3 Classification Report" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PC4 Performance Metrics" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PC4 Best Hyperparameters" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PC4 Classification Report" sheetId="33" state="visible" r:id="rId33"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -464,7 +494,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9385964912280702</v>
+        <v>0.9298245614035088</v>
       </c>
     </row>
     <row r="3">
@@ -479,7 +509,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9137931034482759</v>
+        <v>0.8983050847457628</v>
       </c>
     </row>
     <row r="4">
@@ -509,7 +539,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.9380530973451328</v>
+        <v>0.9298245614035088</v>
       </c>
     </row>
     <row r="6">
@@ -524,7 +554,1057 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.9232665639445301</v>
+        <v>0.9134052388289677</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>KC3</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.890625</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>KC3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8787878787878788</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>KC3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.90625</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>KC3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>F1 Score</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8923076923076924</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>KC3</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>AUC</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.888671875</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Parameter</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Best Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>KC3</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>n_estimators</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>KC3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>learning_rate</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2592482580506069</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9032258064516129</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="E2" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.8787878787878788</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.90625</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8923076923076924</v>
+      </c>
+      <c r="E3" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.890625</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.890625</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.890625</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.890625</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8910068426197458</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.890625</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8905982905982905</v>
+      </c>
+      <c r="E5" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8910068426197458</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.890625</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8905982905982905</v>
+      </c>
+      <c r="E6" t="n">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>MC1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9897039897039897</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>MC1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9865591397849462</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MC1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9918918918918919</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>MC1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>F1 Score</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9892183288409704</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>MC1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>AUC</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.998326582110366</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Parameter</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Best Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>MC1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>n_estimators</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>MC1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>learning_rate</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1.718155552757101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9925925925925926</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9877149877149877</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9901477832512315</v>
+      </c>
+      <c r="E2" t="n">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9865591397849462</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9918918918918919</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9892183288409704</v>
+      </c>
+      <c r="E3" t="n">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.9897039897039897</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9897039897039897</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9897039897039897</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9897039897039897</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9895758661887695</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9898034398034398</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.989683056046101</v>
+      </c>
+      <c r="E5" t="n">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9897195198270466</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9897039897039897</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9897051859130119</v>
+      </c>
+      <c r="E6" t="n">
+        <v>777</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>MC2</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8787878787878788</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>MC2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MC2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>MC2</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>F1 Score</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>MC2</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>AUC</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9148148148148149</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Parameter</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Best Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>MC2</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>n_estimators</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>MC2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>learning_rate</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1.497219649863162</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="E2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="E3" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.8787878787878788</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8787878787878788</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8787878787878788</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8787878787878788</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8777777777777778</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8777777777777778</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8777777777777778</v>
+      </c>
+      <c r="E5" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8787878787878788</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8787878787878788</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8787878787878788</v>
+      </c>
+      <c r="E6" t="n">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>MW1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9890109890109891</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>MW1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MW1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9795918367346939</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>MW1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>F1 Score</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9896907216494846</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>MW1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>AUC</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9844509232264335</v>
       </c>
     </row>
   </sheetData>
@@ -575,7 +1655,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>176</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3">
@@ -590,7 +1670,1012 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.8601286555992473</v>
+        <v>0.6956622654349209</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Parameter</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Best Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>MW1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>n_estimators</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>MW1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>learning_rate</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1.475784123173592</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9767441860465116</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9882352941176471</v>
+      </c>
+      <c r="E2" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9795918367346939</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9896907216494846</v>
+      </c>
+      <c r="E3" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.9890109890109891</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9890109890109891</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9890109890109891</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9890109890109891</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9883720930232558</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9897959183673469</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9889630078835658</v>
+      </c>
+      <c r="E5" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9892665474060822</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9890109890109891</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9890189858655595</v>
+      </c>
+      <c r="E6" t="n">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>PC1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9651162790697675</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>PC1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9666666666666667</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>PC1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9586776859504132</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PC1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>F1 Score</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9626556016597511</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PC1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>AUC</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9869698980515172</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Parameter</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Best Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>PC1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>n_estimators</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>PC1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>learning_rate</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1.538955950630312</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9637681159420289</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9708029197080292</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9672727272727273</v>
+      </c>
+      <c r="E2" t="n">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9666666666666667</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9586776859504132</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9626556016597511</v>
+      </c>
+      <c r="E3" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.9651162790697675</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9651162790697675</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9651162790697675</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9651162790697675</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9652173913043478</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9647403028292212</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9649641644662392</v>
+      </c>
+      <c r="E5" t="n">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9651275137624986</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9651162790697675</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9651073311519128</v>
+      </c>
+      <c r="E6" t="n">
+        <v>258</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>PC2</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9931506849315068</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>PC2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9932885906040269</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>PC2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9932885906040269</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PC2</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>F1 Score</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9932885906040269</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PC2</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>AUC</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9996245365372882</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Parameter</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Best Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>PC2</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>n_estimators</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>PC2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>learning_rate</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1.561904448059235</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.993006993006993</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.993006993006993</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.993006993006993</v>
+      </c>
+      <c r="E2" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9932885906040269</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9932885906040269</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9932885906040269</v>
+      </c>
+      <c r="E3" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.9931506849315068</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9931506849315068</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9931506849315068</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9931506849315068</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9931477918055099</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9931477918055099</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9931477918055099</v>
+      </c>
+      <c r="E5" t="n">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9931506849315068</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9931506849315068</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9931506849315068</v>
+      </c>
+      <c r="E6" t="n">
+        <v>292</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>PC3</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9206349206349206</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>PC3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9128205128205128</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>PC3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9319371727748691</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PC3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>F1 Score</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9222797927461139</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PC3</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>AUC</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9578632023966178</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Parameter</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Best Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>PC3</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>n_estimators</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>PC3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>learning_rate</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1.157882420031645</v>
       </c>
     </row>
   </sheetData>
@@ -641,13 +2726,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9642857142857143</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9152542372881356</v>
+        <v>0.8983050847457628</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9391304347826087</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="E2" t="n">
         <v>59</v>
@@ -660,13 +2745,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9137931034482759</v>
+        <v>0.8983050847457628</v>
       </c>
       <c r="C3" t="n">
         <v>0.9636363636363636</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9380530973451328</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="E3" t="n">
         <v>55</v>
@@ -679,16 +2764,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9385964912280702</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9385964912280702</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9385964912280702</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9385964912280702</v>
+        <v>0.9298245614035088</v>
       </c>
     </row>
     <row r="5">
@@ -698,13 +2783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9390394088669951</v>
+        <v>0.9309707241910632</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9394453004622496</v>
+        <v>0.9309707241910632</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9385917660638707</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="E5" t="n">
         <v>114</v>
@@ -717,16 +2802,1091 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9399252441448449</v>
+        <v>0.9321168869786177</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9385964912280702</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9386106667206685</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="E6" t="n">
         <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9289617486338798</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.918918918918919</v>
+      </c>
+      <c r="E2" t="n">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9128205128205128</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9319371727748691</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9222797927461139</v>
+      </c>
+      <c r="E3" t="n">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.9206349206349206</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9206349206349206</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9206349206349206</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9206349206349206</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9208911307271963</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9205140409328891</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9205993558325165</v>
+      </c>
+      <c r="E5" t="n">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9208057273631044</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9206349206349206</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9206171382337185</v>
+      </c>
+      <c r="E6" t="n">
+        <v>378</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>PC4</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9459459459459459</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>PC4</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9316239316239316</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>PC4</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9646017699115044</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PC4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>F1 Score</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9478260869565217</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PC4</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>AUC</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9875375497280182</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Parameter</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Best Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>PC4</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>n_estimators</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>PC4</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>learning_rate</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1.78315672972839</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9619047619047619</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.926605504587156</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9439252336448598</v>
+      </c>
+      <c r="E2" t="n">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9316239316239316</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9646017699115044</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9478260869565217</v>
+      </c>
+      <c r="E3" t="n">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.9459459459459459</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9459459459459459</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9459459459459459</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9459459459459459</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9467643467643467</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9456036372493302</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9458756603006908</v>
+      </c>
+      <c r="E5" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9464915464915465</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9459459459459459</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9459108031233183</v>
+      </c>
+      <c r="E6" t="n">
+        <v>444</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>JM1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8428805237315876</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>JM1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8838709677419355</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>JM1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.7880032867707477</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>JM1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>F1 Score</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8331885317115552</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>JM1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>AUC</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9044020494770164</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Parameter</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Best Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>JM1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>n_estimators</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>JM1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>learning_rate</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1.486206656842239</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.8101545253863135</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8973105134474327</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.851508120649652</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.8838709677419355</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7880032867707477</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8331885317115552</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.8428805237315876</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8428805237315876</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8428805237315876</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8428805237315876</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8470127465641245</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8426569001090902</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8423483261806035</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8468619355118422</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8428805237315876</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.842385804881377</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2444</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>KC1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8132183908045977</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>KC1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8355263157894737</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>KC1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.7604790419161677</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>KC1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>F1 Score</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7962382445141066</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>KC1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>AUC</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8345849736990107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Parameter</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Best Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>KC1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>n_estimators</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>KC1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>learning_rate</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1.496153541193339</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.7959183673469388</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8618784530386741</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8275862068965517</v>
+      </c>
+      <c r="E2" t="n">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.8355263157894737</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7604790419161677</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7962382445141066</v>
+      </c>
+      <c r="E3" t="n">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.8132183908045977</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8132183908045977</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8132183908045977</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8132183908045977</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8157223415682062</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8111787474774208</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8119122257053292</v>
+      </c>
+      <c r="E5" t="n">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8149256299616034</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8132183908045977</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8125427881670449</v>
+      </c>
+      <c r="E6" t="n">
+        <v>348</v>
       </c>
     </row>
   </sheetData>
